--- a/medicine/Maladies infectieuses/Prévalence_du_VIH_chez_les_adultes/Prévalence_du_VIH_chez_les_adultes.xlsx
+++ b/medicine/Maladies infectieuses/Prévalence_du_VIH_chez_les_adultes/Prévalence_du_VIH_chez_les_adultes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9valence_du_VIH_chez_les_adultes</t>
+          <t>Prévalence_du_VIH_chez_les_adultes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus de l'immunodéficience humaine (VIH), responsable du sida, a une prévalence variable d’un pays à l’autre. La liste ci-dessous répertorie le taux de prévalence chez les adultes dans différents pays, sur la base de données provenant de diverses sources, notamment du CIA World Factbook[1],[2],[3].  En 2015, on estime à 36,7 millions le nombre de personnes infectées par le VIH dans le monde[4]. 
-La pandémie de VIH est la plus grave en Afrique australe.  Plus de 10% de toutes les personnes vivant avec le VIH / sida résident dans la région.  La prévalence du VIH chez l'adulte dépasse 20% à Eswatini (Swaziland) , au Botswana et au Lesotho , tandis que six autres pays signalent une prévalence du VIH chez l'adulte d'au moins 10%.  En dehors de l'Afrique, le taux de prévalence le plus élevé est observé aux Bahamas (3,3%)[5]. 
-En chiffres absolus, l'Afrique du Sud (7,1 millions), le Nigéria (3,2 millions) et l'Inde (2,1 millions) avaient le nombre le plus élevé de cas de VIH / sida à la fin de 2016[6],[7]. Alors que la forte population de personnes séropositives en Afrique du Sud est attribuable à sa prévalence élevée de la maladie (18,9%, l'une des plus élevées au monde), celle du Nigéria est inférieure à 2,9%, tandis que le taux de prévalence en Inde est de 0,3%[1].  Cependant, des pays tels que le Nigéria où l'ONUSIDA a des taux de VIH élevés, supérieurs à 1%, sont classés dans la catégorie épidémies généralisées de VIH (GHE), tandis que la prévalence de l'Inde est bien inférieure à ce seuil, avec une prévalence inférieure à celle de l'Amérique et à peu près identique à celle de la France [8]. 
-À l'autre extrémité du spectre, Svalbard n'aurait aucun cas de VIH / sida, tandis que le Bhoutan aurait une population beaucoup plus nombreuse, mais ne représenterait encore que 246 cas jusqu'en 2011[9].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus de l'immunodéficience humaine (VIH), responsable du sida, a une prévalence variable d’un pays à l’autre. La liste ci-dessous répertorie le taux de prévalence chez les adultes dans différents pays, sur la base de données provenant de diverses sources, notamment du CIA World Factbook.  En 2015, on estime à 36,7 millions le nombre de personnes infectées par le VIH dans le monde. 
+La pandémie de VIH est la plus grave en Afrique australe.  Plus de 10% de toutes les personnes vivant avec le VIH / sida résident dans la région.  La prévalence du VIH chez l'adulte dépasse 20% à Eswatini (Swaziland) , au Botswana et au Lesotho , tandis que six autres pays signalent une prévalence du VIH chez l'adulte d'au moins 10%.  En dehors de l'Afrique, le taux de prévalence le plus élevé est observé aux Bahamas (3,3%). 
+En chiffres absolus, l'Afrique du Sud (7,1 millions), le Nigéria (3,2 millions) et l'Inde (2,1 millions) avaient le nombre le plus élevé de cas de VIH / sida à la fin de 2016,. Alors que la forte population de personnes séropositives en Afrique du Sud est attribuable à sa prévalence élevée de la maladie (18,9%, l'une des plus élevées au monde), celle du Nigéria est inférieure à 2,9%, tandis que le taux de prévalence en Inde est de 0,3%.  Cependant, des pays tels que le Nigéria où l'ONUSIDA a des taux de VIH élevés, supérieurs à 1%, sont classés dans la catégorie épidémies généralisées de VIH (GHE), tandis que la prévalence de l'Inde est bien inférieure à ce seuil, avec une prévalence inférieure à celle de l'Amérique et à peu près identique à celle de la France . 
+À l'autre extrémité du spectre, Svalbard n'aurait aucun cas de VIH / sida, tandis que le Bhoutan aurait une population beaucoup plus nombreuse, mais ne représenterait encore que 246 cas jusqu'en 2011.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pr%C3%A9valence_du_VIH_chez_les_adultes</t>
+          <t>Prévalence_du_VIH_chez_les_adultes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Tableau des estimations de la prévalence du VIH / SIDA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces données proviennent du World Factbook de la CIA [10] sauf indication contraire.  Un tiret horizontal - indique que les données n'ont pas été publiées.  La prévalence chez les adultes correspond aux âges compris entre 15 et 49 ans. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces données proviennent du World Factbook de la CIA  sauf indication contraire.  Un tiret horizontal - indique que les données n'ont pas été publiées.  La prévalence chez les adultes correspond aux âges compris entre 15 et 49 ans. 
 </t>
         </is>
       </c>
